--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ntrk3-Ptprf.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ntrk3-Ptprf.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.10442898318463</v>
+        <v>1.467507333333333</v>
       </c>
       <c r="H2">
-        <v>1.10442898318463</v>
+        <v>4.402521999999999</v>
       </c>
       <c r="I2">
-        <v>0.1521799365620099</v>
+        <v>0.1890754490804</v>
       </c>
       <c r="J2">
-        <v>0.1521799365620099</v>
+        <v>0.1890754490804</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.131131633211892</v>
+        <v>0.2520896666666667</v>
       </c>
       <c r="N2">
-        <v>0.131131633211892</v>
+        <v>0.7562690000000001</v>
       </c>
       <c r="O2">
-        <v>0.01902636310565607</v>
+        <v>0.03491140780587004</v>
       </c>
       <c r="P2">
-        <v>0.01902636310565607</v>
+        <v>0.03491140780587004</v>
       </c>
       <c r="Q2">
-        <v>0.1448255763315497</v>
+        <v>0.3699434344908889</v>
       </c>
       <c r="R2">
-        <v>0.1448255763315497</v>
+        <v>3.329490910418</v>
       </c>
       <c r="S2">
-        <v>0.002895430730424507</v>
+        <v>0.006600890108923859</v>
       </c>
       <c r="T2">
-        <v>0.002895430730424507</v>
+        <v>0.006600890108923859</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.10442898318463</v>
+        <v>1.467507333333333</v>
       </c>
       <c r="H3">
-        <v>1.10442898318463</v>
+        <v>4.402521999999999</v>
       </c>
       <c r="I3">
-        <v>0.1521799365620099</v>
+        <v>0.1890754490804</v>
       </c>
       <c r="J3">
-        <v>0.1521799365620099</v>
+        <v>0.1890754490804</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.2091081533331</v>
+        <v>1.312792666666667</v>
       </c>
       <c r="N3">
-        <v>1.2091081533331</v>
+        <v>3.938378</v>
       </c>
       <c r="O3">
-        <v>0.1754338766005591</v>
+        <v>0.1818061039810792</v>
       </c>
       <c r="P3">
-        <v>0.1754338766005591</v>
+        <v>0.1818061039810792</v>
       </c>
       <c r="Q3">
-        <v>1.335374088345921</v>
+        <v>1.926532865479555</v>
       </c>
       <c r="R3">
-        <v>1.335374088345921</v>
+        <v>17.338795789316</v>
       </c>
       <c r="S3">
-        <v>0.02669751621190056</v>
+        <v>0.03437507075578045</v>
       </c>
       <c r="T3">
-        <v>0.02669751621190056</v>
+        <v>0.03437507075578045</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.10442898318463</v>
+        <v>1.467507333333333</v>
       </c>
       <c r="H4">
-        <v>1.10442898318463</v>
+        <v>4.402521999999999</v>
       </c>
       <c r="I4">
-        <v>0.1521799365620099</v>
+        <v>0.1890754490804</v>
       </c>
       <c r="J4">
-        <v>0.1521799365620099</v>
+        <v>0.1890754490804</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.55186210826799</v>
+        <v>5.655957</v>
       </c>
       <c r="N4">
-        <v>5.55186210826799</v>
+        <v>16.967871</v>
       </c>
       <c r="O4">
-        <v>0.8055397602937848</v>
+        <v>0.7832824882130508</v>
       </c>
       <c r="P4">
-        <v>0.8055397602937848</v>
+        <v>0.7832824882130508</v>
       </c>
       <c r="Q4">
-        <v>6.131637423015691</v>
+        <v>8.300158374517999</v>
       </c>
       <c r="R4">
-        <v>6.131637423015691</v>
+        <v>74.70142537066198</v>
       </c>
       <c r="S4">
-        <v>0.1225869896196849</v>
+        <v>0.1480994882156957</v>
       </c>
       <c r="T4">
-        <v>0.1225869896196849</v>
+        <v>0.1480994882156957</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.15295992191982</v>
+        <v>6.293983333333333</v>
       </c>
       <c r="H5">
-        <v>6.15295992191982</v>
+        <v>18.88195</v>
       </c>
       <c r="I5">
-        <v>0.84782006343799</v>
+        <v>0.8109245509196</v>
       </c>
       <c r="J5">
-        <v>0.84782006343799</v>
+        <v>0.8109245509195999</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.131131633211892</v>
+        <v>0.2520896666666667</v>
       </c>
       <c r="N5">
-        <v>0.131131633211892</v>
+        <v>0.7562690000000001</v>
       </c>
       <c r="O5">
-        <v>0.01902636310565607</v>
+        <v>0.03491140780587004</v>
       </c>
       <c r="P5">
-        <v>0.01902636310565607</v>
+        <v>0.03491140780587004</v>
       </c>
       <c r="Q5">
-        <v>0.8068476836486614</v>
+        <v>1.586648160505556</v>
       </c>
       <c r="R5">
-        <v>0.8068476836486614</v>
+        <v>14.27983344455</v>
       </c>
       <c r="S5">
-        <v>0.01613093237523156</v>
+        <v>0.02831051769694618</v>
       </c>
       <c r="T5">
-        <v>0.01613093237523156</v>
+        <v>0.02831051769694617</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.15295992191982</v>
+        <v>6.293983333333333</v>
       </c>
       <c r="H6">
-        <v>6.15295992191982</v>
+        <v>18.88195</v>
       </c>
       <c r="I6">
-        <v>0.84782006343799</v>
+        <v>0.8109245509196</v>
       </c>
       <c r="J6">
-        <v>0.84782006343799</v>
+        <v>0.8109245509195999</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.2091081533331</v>
+        <v>1.312792666666667</v>
       </c>
       <c r="N6">
-        <v>1.2091081533331</v>
+        <v>3.938378</v>
       </c>
       <c r="O6">
-        <v>0.1754338766005591</v>
+        <v>0.1818061039810792</v>
       </c>
       <c r="P6">
-        <v>0.1754338766005591</v>
+        <v>0.1818061039810792</v>
       </c>
       <c r="Q6">
-        <v>7.439594008725049</v>
+        <v>8.262695164122222</v>
       </c>
       <c r="R6">
-        <v>7.439594008725049</v>
+        <v>74.3642564771</v>
       </c>
       <c r="S6">
-        <v>0.1487363603886585</v>
+        <v>0.1474310332252988</v>
       </c>
       <c r="T6">
-        <v>0.1487363603886585</v>
+        <v>0.1474310332252987</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.15295992191982</v>
+        <v>6.293983333333333</v>
       </c>
       <c r="H7">
-        <v>6.15295992191982</v>
+        <v>18.88195</v>
       </c>
       <c r="I7">
-        <v>0.84782006343799</v>
+        <v>0.8109245509196</v>
       </c>
       <c r="J7">
-        <v>0.84782006343799</v>
+        <v>0.8109245509195999</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.55186210826799</v>
+        <v>5.655957</v>
       </c>
       <c r="N7">
-        <v>5.55186210826799</v>
+        <v>16.967871</v>
       </c>
       <c r="O7">
-        <v>0.8055397602937848</v>
+        <v>0.7832824882130508</v>
       </c>
       <c r="P7">
-        <v>0.8055397602937848</v>
+        <v>0.7832824882130508</v>
       </c>
       <c r="Q7">
-        <v>34.16038504419821</v>
+        <v>35.59849909205</v>
       </c>
       <c r="R7">
-        <v>34.16038504419821</v>
+        <v>320.3864918284499</v>
       </c>
       <c r="S7">
-        <v>0.6829527706740999</v>
+        <v>0.6351829999973552</v>
       </c>
       <c r="T7">
-        <v>0.6829527706740999</v>
+        <v>0.6351829999973551</v>
       </c>
     </row>
   </sheetData>
